--- a/06 Revisiones y Testing/Testing.xlsx
+++ b/06 Revisiones y Testing/Testing.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\GitHub\AMBU-NICA\06 Revisiones y Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>Prueba</t>
   </si>
@@ -47,12 +47,6 @@
     <t>Correccion</t>
   </si>
   <si>
-    <t>Prueba presiones</t>
-  </si>
-  <si>
-    <t>Prueba volumenes</t>
-  </si>
-  <si>
     <t>Corte cable</t>
   </si>
   <si>
@@ -116,13 +110,40 @@
     <t>Durante la prueba 7 anterior hubo 4 apagones de varios minutos. El equipo reinició adecuadamentre en cuanto regresó la electricidad.</t>
   </si>
   <si>
-    <t>El motor nunca pasó de 40C (con el ambiente hasta 35C), el Driver no se calentó.</t>
-  </si>
-  <si>
     <t>No se detectó desgaste o debilitamiento de piezas despues de los 7 dias de operación continua.</t>
   </si>
   <si>
-    <t>Las pruebas 1 a 4 se realizaron con el equipo operando durante 7 dias continuos, a 24 Respiraciones por minuto, con el volumen máximo, sin mascarilla</t>
+    <t>Las pruebas 1 a 4 se realizaron con el equipo operando durante 8 dias continuos, a 24 Respiraciones por minuto, con el volumen máximo, sin mascarilla</t>
+  </si>
+  <si>
+    <t>2. La valvula de seguridad mecánica esta a 60cmH2O o mas, con gran riesgo para los pacientes.</t>
+  </si>
+  <si>
+    <t>El AMBU sufrio un minimo desgaste en el borde de material rigido, y una deformacion de menos de 5mm en su circunferencia</t>
+  </si>
+  <si>
+    <t>El motor nunca pasó de 40C (con temperatura ambiente hasta 35C). El Driver no se calentó.</t>
+  </si>
+  <si>
+    <t>Pendiente</t>
+  </si>
+  <si>
+    <t>5. Prueba volumenes</t>
+  </si>
+  <si>
+    <t>6. Prueba presiones</t>
+  </si>
+  <si>
+    <t>Pasos</t>
+  </si>
+  <si>
+    <t>Volumen2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volumen1 </t>
+  </si>
+  <si>
+    <t>1 Las presiones de operación normales ( sin paciente en la mascara) no rebasaron los 20 cmH2O</t>
   </si>
 </sst>
 </file>
@@ -197,6 +218,1183 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-NI" sz="1100"/>
+              <a:t>Mililitros</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-NI" sz="1100" baseline="0"/>
+              <a:t> de aire por numero de pasos AMBU</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-NI" sz="1100"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11735313573608178"/>
+          <c:y val="0.10421453423488479"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-NI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14198436577541629"/>
+          <c:y val="0.20340224975961632"/>
+          <c:w val="0.79355312293280411"/>
+          <c:h val="0.46385652665845439"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Test Mecanico'!$C$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Volumen1 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Test Mecanico'!$B$26:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>550</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Test Mecanico'!$C$26:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>575</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Test Mecanico'!$D$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Volumen2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Test Mecanico'!$B$26:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>550</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Test Mecanico'!$D$26:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="229178184"/>
+        <c:axId val="229177008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="229178184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-NI"/>
+                  <a:t>Pasos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-NI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-NI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="229177008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="229177008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Volumen (ml)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-NI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-NI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="229178184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-NI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-NI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -462,10 +1660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H24"/>
+  <dimension ref="A2:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,12 +1677,12 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -492,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>5</v>
@@ -518,7 +1716,7 @@
         <v>43939</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -527,10 +1725,10 @@
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -550,10 +1748,10 @@
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -564,7 +1762,7 @@
         <v>43951</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9">
         <v>7.5</v>
@@ -573,10 +1771,10 @@
         <v>7.5</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
         <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -587,7 +1785,7 @@
         <v>43953</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -596,10 +1794,10 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -610,7 +1808,7 @@
         <v>43953</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -619,7 +1817,7 @@
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -630,7 +1828,7 @@
         <v>43954</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -639,10 +1837,10 @@
         <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -653,64 +1851,158 @@
         <v>43959</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <f>7*24</f>
-        <v>168</v>
+        <f>8*24</f>
+        <v>192</v>
       </c>
       <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
         <v>22</v>
       </c>
-      <c r="G13" t="s">
-        <v>24</v>
-      </c>
       <c r="H13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26">
+        <v>300</v>
+      </c>
+      <c r="C26">
+        <f>700/4</f>
+        <v>175</v>
+      </c>
+      <c r="D26">
+        <f>700/4</f>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27">
+        <v>400</v>
+      </c>
+      <c r="C27">
+        <f>600/3</f>
+        <v>200</v>
+      </c>
+      <c r="D27">
+        <f>750/3</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28">
+        <v>500</v>
+      </c>
+      <c r="C28">
+        <f>800/2</f>
+        <v>400</v>
+      </c>
+      <c r="D28">
+        <f>780/2</f>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29">
+        <v>550</v>
+      </c>
+      <c r="C29">
+        <v>575</v>
+      </c>
+      <c r="D29">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/06 Revisiones y Testing/Testing.xlsx
+++ b/06 Revisiones y Testing/Testing.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>Prueba</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>1 Las presiones de operación normales ( sin paciente en la mascara) no rebasaron los 20 cmH2O</t>
+  </si>
+  <si>
+    <t>Motor salta a 40cmH2O</t>
   </si>
 </sst>
 </file>
@@ -490,11 +493,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="229178184"/>
-        <c:axId val="229177008"/>
+        <c:axId val="217875984"/>
+        <c:axId val="217876376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="229178184"/>
+        <c:axId val="217875984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -607,12 +610,12 @@
             <a:endParaRPr lang="es-NI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229177008"/>
+        <c:crossAx val="217876376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="229177008"/>
+        <c:axId val="217876376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -725,7 +728,7 @@
             <a:endParaRPr lang="es-NI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229178184"/>
+        <c:crossAx val="217875984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1660,10 +1663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H35"/>
+  <dimension ref="A2:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2000,6 +2003,11 @@
         <v>30</v>
       </c>
     </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/06 Revisiones y Testing/Testing.xlsx
+++ b/06 Revisiones y Testing/Testing.xlsx
@@ -125,9 +125,6 @@
     <t>El motor nunca pasó de 40C (con temperatura ambiente hasta 35C). El Driver no se calentó.</t>
   </si>
   <si>
-    <t>Pendiente</t>
-  </si>
-  <si>
     <t>5. Prueba volumenes</t>
   </si>
   <si>
@@ -146,14 +143,17 @@
     <t>1 Las presiones de operación normales ( sin paciente en la mascara) no rebasaron los 20 cmH2O</t>
   </si>
   <si>
-    <t>Motor salta a 40cmH2O</t>
+    <t>3. El motor no rebasa los 39cmH2O, y empieza a saltar pasos</t>
+  </si>
+  <si>
+    <t>Se verificó el funcionamiento del sensor BMP280, que reporta las presiones hasta 1000 veces por cada ciclo respiratorio, con una precision de 0.05cmH2O.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +164,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -190,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -206,6 +214,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,11 +502,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="217875984"/>
-        <c:axId val="217876376"/>
+        <c:axId val="225410752"/>
+        <c:axId val="225413888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="217875984"/>
+        <c:axId val="225410752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -610,12 +619,12 @@
             <a:endParaRPr lang="es-NI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217876376"/>
+        <c:crossAx val="225413888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="217876376"/>
+        <c:axId val="225413888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -728,7 +737,7 @@
             <a:endParaRPr lang="es-NI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217875984"/>
+        <c:crossAx val="225410752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1663,10 +1672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H36"/>
+  <dimension ref="A2:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1907,7 +1916,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1916,13 +1925,13 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" t="s">
         <v>36</v>
-      </c>
-      <c r="C25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1985,26 +1994,28 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="7" t="s">
         <v>40</v>
       </c>
     </row>
